--- a/src/experiment/results/wilcoxon/colon/comparison_PinFSSVM_vs_L1SVM_colon.xlsx
+++ b/src/experiment/results/wilcoxon/colon/comparison_PinFSSVM_vs_L1SVM_colon.xlsx
@@ -568,10 +568,10 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.8375</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-0.2303571428571429</v>
       </c>
     </row>
     <row r="8">
@@ -606,10 +606,10 @@
         <v>0.7222222222222222</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.8125</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.09027777777777779</v>
       </c>
     </row>
     <row r="10">
@@ -625,10 +625,10 @@
         <v>0.8125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0625</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -644,10 +644,10 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.1944444444444444</v>
       </c>
     </row>
     <row r="12">
@@ -663,10 +663,10 @@
         <v>0.7083333333333334</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-0.1249999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -682,10 +682,10 @@
         <v>0.7375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03750000000000009</v>
+        <v>-0.04027777777777775</v>
       </c>
     </row>
     <row r="14">
@@ -701,10 +701,10 @@
         <v>0.9375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8125</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>0.125</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -720,10 +720,10 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5555555555555555</v>
+        <v>0.65</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1111111111111113</v>
+        <v>0.01666666666666672</v>
       </c>
     </row>
     <row r="16">
@@ -739,10 +739,10 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.5833333333333335</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.1944444444444443</v>
       </c>
     </row>
     <row r="17">
@@ -758,10 +758,10 @@
         <v>0.763888888888889</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05555555555555558</v>
+        <v>-0.06944444444444431</v>
       </c>
     </row>
     <row r="18">
@@ -796,10 +796,10 @@
         <v>0.9375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8125</v>
+        <v>0.6571428571428573</v>
       </c>
       <c r="E19" t="n">
-        <v>0.125</v>
+        <v>0.2803571428571427</v>
       </c>
     </row>
     <row r="20">
@@ -815,10 +815,10 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5555555555555555</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1111111111111113</v>
+        <v>-0.111111111111111</v>
       </c>
     </row>
     <row r="21">
@@ -834,10 +834,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.4571428571428572</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05555555555555558</v>
+        <v>0.3761904761904762</v>
       </c>
     </row>
   </sheetData>
